--- a/DATA_goal/Junction_Flooding_104.xlsx
+++ b/DATA_goal/Junction_Flooding_104.xlsx
@@ -447,24 +447,24 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>41536.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.46</v>
+        <v>2.95</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.06</v>
+        <v>2.21</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.41</v>
+        <v>3.14</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.75</v>
+        <v>1.47</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>156.29</v>
+        <v>15.63</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.76</v>
+        <v>2.98</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>2.84</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>28.44</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41536.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.35</v>
+        <v>1.04</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.75</v>
+        <v>2.27</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.69</v>
+        <v>3.17</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>117.43</v>
+        <v>11.74</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.97</v>
+        <v>2.3</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.75</v>
+        <v>0.77</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>29.3</v>
+        <v>2.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41536.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.7</v>
+        <v>2.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.5</v>
+        <v>2.95</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>105.98</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>6.07</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.04</v>
+        <v>2.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41536.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.63</v>
+        <v>2.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.25</v>
+        <v>4.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.42</v>
+        <v>3.84</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.96</v>
+        <v>1.7</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>63.55</v>
+        <v>6.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.29</v>
+        <v>2.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.93</v>
+        <v>1.89</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.15</v>
+        <v>2.41</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>251.34</v>
+        <v>25.13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.47</v>
+        <v>4.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.87</v>
+        <v>3.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.39</v>
+        <v>3.14</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.79</v>
+        <v>5.78</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41536.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>30.94</v>
+        <v>3.09</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>25.07</v>
+        <v>2.51</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>45.54</v>
+        <v>4.55</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>15.81</v>
+        <v>1.58</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>162.07</v>
+        <v>16.21</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>31.19</v>
+        <v>3.12</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>20.89</v>
+        <v>2.09</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>21.88</v>
+        <v>2.19</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>41.59</v>
+        <v>4.16</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41536.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.82</v>
+        <v>1.98</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>43.28</v>
+        <v>4.33</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>35.35</v>
+        <v>3.53</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>60.07</v>
+        <v>6.01</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>24.08</v>
+        <v>2.41</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>22.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>229.59</v>
+        <v>22.96</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>43.51</v>
+        <v>4.35</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>29.28</v>
+        <v>2.93</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.35</v>
+        <v>1.54</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>29.31</v>
+        <v>2.93</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>18.21</v>
+        <v>1.82</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>54.57</v>
+        <v>5.46</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41536.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>147.19</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>28.46</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>7.35</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>38.22</v>
+        <v>3.82</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41536.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>26.13</v>
+        <v>2.61</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>21.28</v>
+        <v>2.13</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>37.63</v>
+        <v>3.76</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>135.74</v>
+        <v>13.57</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>26.31</v>
+        <v>2.63</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>34.22</v>
+        <v>3.42</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41536.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>21.95</v>
+        <v>2.2</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>47.87</v>
+        <v>4.79</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>39.29</v>
+        <v>3.93</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.25</v>
+        <v>1.72</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>65.40000000000001</v>
+        <v>6.54</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>26.64</v>
+        <v>2.66</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>24.56</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>254.77</v>
+        <v>25.48</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>48.12</v>
+        <v>4.81</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>32.47</v>
+        <v>3.25</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.04</v>
+        <v>1.7</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>32.14</v>
+        <v>3.21</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>20.17</v>
+        <v>2.02</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>59.39</v>
+        <v>5.94</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_104.xlsx
+++ b/DATA_goal/Junction_Flooding_104.xlsx
@@ -447,11 +447,11 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -463,17 +463,17 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44785.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.98</v>
+        <v>39.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.19</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.65</v>
+        <v>46.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>21.58</v>
+        <v>215.82</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.75</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.68</v>
+        <v>26.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.63</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.12</v>
+        <v>41.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44785.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.43</v>
+        <v>34.27</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.83</v>
+        <v>48.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.7</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.15</v>
+        <v>181.53</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.47</v>
+        <v>34.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.3</v>
+        <v>23.02</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.95</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.47</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.39</v>
+        <v>43.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44785.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.25</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.13</v>
+        <v>31.25</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.54</v>
+        <v>25.36</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.47</v>
+        <v>44.72</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.76</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>16.44</v>
+        <v>164.36</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.16</v>
+        <v>31.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.1</v>
+        <v>21.02</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.53</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.06</v>
+        <v>40.59</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44785.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.32</v>
+        <v>53.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.36</v>
+        <v>43.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.33</v>
+        <v>73.28</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>28.45</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.36</v>
+        <v>53.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.6</v>
+        <v>36.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.59</v>
+        <v>35.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.65</v>
+        <v>66.48</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_104.xlsx
+++ b/DATA_goal/Junction_Flooding_104.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44785.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.03</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.83</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.74</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.5</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.21</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.68</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.31</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.71</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.45</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.44</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>215.82</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.75</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.79</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.63</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.63</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.74</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.18</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.23</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.42</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>16.92</v>
@@ -759,103 +759,103 @@
         <v>44785.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.19</v>
+        <v>11.194</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.792</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>34.27</v>
+        <v>34.271</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>27.69</v>
+        <v>27.686</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.48</v>
+        <v>12.477</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.27</v>
+        <v>48.274</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>8.288</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.71</v>
+        <v>13.707</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.32</v>
+        <v>14.321</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.99</v>
+        <v>3.986</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>17.48</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.7</v>
+        <v>10.698</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.544</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.053</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>181.53</v>
+        <v>181.528</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>34.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.02</v>
+        <v>23.022</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.95</v>
+        <v>11.946</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.23</v>
+        <v>2.231</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.47</v>
+        <v>23.472</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.732</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.23</v>
+        <v>14.234</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.93</v>
+        <v>43.932</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.33</v>
+        <v>6.326</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44785.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.41</v>
+        <v>14.413</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.36</v>
+        <v>10.363</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.254</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.25</v>
+        <v>31.254</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.36</v>
+        <v>25.357</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.34</v>
+        <v>11.343</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.72</v>
+        <v>44.724</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.62</v>
+        <v>7.622</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.21</v>
+        <v>11.214</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.54</v>
+        <v>12.537</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.14</v>
+        <v>13.138</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.62</v>
+        <v>3.624</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.95</v>
+        <v>15.948</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.67</v>
+        <v>9.673</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.031</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.36</v>
+        <v>164.357</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.57</v>
+        <v>31.568</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.02</v>
+        <v>21.022</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.97</v>
+        <v>10.969</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.89</v>
+        <v>1.891</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.53</v>
+        <v>21.533</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.27</v>
+        <v>8.266</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.07</v>
+        <v>13.071</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.59</v>
+        <v>40.591</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.78</v>
+        <v>5.781</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>22.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44785.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.41</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>49.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.72</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_104.xlsx
+++ b/DATA_goal/Junction_Flooding_104.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>44785.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.06</v>
+        <v>18.063</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.38</v>
+        <v>1.376</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>53.24</v>
+        <v>53.244</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.64</v>
+        <v>43.635</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>73.28</v>
+        <v>73.28100000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.17</v>
+        <v>13.169</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.51</v>
+        <v>19.512</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.52</v>
+        <v>22.518</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.16</v>
+        <v>6.159</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.28</v>
+        <v>27.283</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.15</v>
+        <v>16.149</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.88</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.955</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.54</v>
+        <v>284.539</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.6</v>
+        <v>53.597</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.03</v>
+        <v>36.033</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.88</v>
+        <v>18.882</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.83</v>
+        <v>2.828</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.88</v>
+        <v>35.879</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.87</v>
+        <v>13.866</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.3</v>
+        <v>16.297</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.39</v>
+        <v>22.394</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>66.48</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.968</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44785.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>175.81</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>33.72</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_104.xlsx
+++ b/DATA_goal/Junction_Flooding_104.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>44785.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.502</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.063</v>
+        <v>18.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.376</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>53.244</v>
+        <v>53.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.635</v>
+        <v>43.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.282</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>73.28100000000001</v>
+        <v>73.28</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.668</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.169</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.512</v>
+        <v>19.51</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.518</v>
+        <v>22.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.159</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.174</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.283</v>
+        <v>27.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.149</v>
+        <v>16.15</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.88</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.955</v>
+        <v>0.96</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.539</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.597</v>
+        <v>53.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.698</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.033</v>
+        <v>36.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.882</v>
+        <v>18.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.828</v>
+        <v>2.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.879</v>
+        <v>35.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.633</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.866</v>
+        <v>13.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.297</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.394</v>
+        <v>22.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>66.48</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.968</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44785.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.41</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>49.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.72</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>
